--- a/Examples/brc/brc0_model.xlsx
+++ b/Examples/brc/brc0_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unizares-my.sharepoint.com/personal/ctorresc_unizar_es/Documents/Termoeconomia/Modelos EES/BRC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\brc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{0757E120-638A-4165-B2D6-048C93D18459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{782A99F7-DB92-47D6-B0AD-ABF39FDF5C2B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DA97AB-1FB6-46C2-B6CB-B89F24162BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="780" windowWidth="25740" windowHeight="14700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
   <si>
     <t>key</t>
   </si>
@@ -855,8 +855,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,120 +874,135 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>55</v>
+      <c r="A2" t="str">
+        <f>Exergy!A2</f>
+        <v>B1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>56</v>
+      <c r="A3" t="str">
+        <f>Exergy!A3</f>
+        <v>B2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>57</v>
+      <c r="A4" t="str">
+        <f>Exergy!A4</f>
+        <v>B3</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>58</v>
+      <c r="A5" t="str">
+        <f>Exergy!A5</f>
+        <v>B4</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>59</v>
+      <c r="A6" t="str">
+        <f>Exergy!A6</f>
+        <v>B5</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
+      <c r="A7" t="str">
+        <f>Exergy!A7</f>
+        <v>B6</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>60</v>
+      <c r="A8" t="str">
+        <f>Exergy!A8</f>
+        <v>B7</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>61</v>
+      <c r="A9" t="str">
+        <f>Exergy!A9</f>
+        <v>B8</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>39</v>
+      <c r="A10" t="str">
+        <f>Exergy!A10</f>
+        <v>QH</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>40</v>
+      <c r="A11" t="str">
+        <f>Exergy!A11</f>
+        <v>WT1</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>41</v>
+      <c r="A12" t="str">
+        <f>Exergy!A12</f>
+        <v>WT2</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>42</v>
+      <c r="A13" t="str">
+        <f>Exergy!A13</f>
+        <v>WP1</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>43</v>
+      <c r="A14" t="str">
+        <f>Exergy!A14</f>
+        <v>WP2</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>62</v>
+      <c r="A15" t="str">
+        <f>Exergy!A15</f>
+        <v>WN</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>44</v>
+      <c r="A16" t="str">
+        <f>Exergy!A16</f>
+        <v>QCND</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1017,7 +1032,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B1" sqref="B1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,13 +1049,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1048,13 +1063,13 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1062,13 +1077,13 @@
         <v>46</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>71</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1076,13 +1091,13 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1090,13 +1105,13 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>72</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>77</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1104,13 +1119,13 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>73</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1118,13 +1133,13 @@
         <v>50</v>
       </c>
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>75</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1132,13 +1147,13 @@
         <v>51</v>
       </c>
       <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>53</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1146,13 +1161,13 @@
         <v>52</v>
       </c>
       <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>74</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1164,7 +1179,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D9</xm:sqref>
+          <xm:sqref>B2:B9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1177,7 +1192,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1825,7 +1840,7 @@
   <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
